--- a/IKXS9J.0316/IKXS9JOsGyak06.xlsx
+++ b/IKXS9J.0316/IKXS9JOsGyak06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boldi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boldi\Documents\GitHub\IKXS9J.OsGyak\IKXS9J.0316\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{023D665C-3444-42CF-86C5-F0B7D885A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69585D4-EF31-4AED-BA31-B105E0F79B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FC33D60-4AE3-43DE-81A1-81C4DD287A60}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{4FC33D60-4AE3-43DE-81A1-81C4DD287A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -258,10 +264,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -270,16 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -594,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D8551-BF08-4B9F-9437-A08C9245AEB0}">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,179 +637,179 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="K1" s="19">
+      <c r="I1" s="12"/>
+      <c r="K1" s="15">
         <v>1</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="15">
         <v>2</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="15">
         <v>3</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="15">
         <v>4</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="15">
         <v>5</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="15">
         <v>6</v>
       </c>
-      <c r="Q1" s="19">
+      <c r="Q1" s="15">
         <v>7</v>
       </c>
-      <c r="R1" s="19">
+      <c r="R1" s="15">
         <v>8</v>
       </c>
-      <c r="S1" s="19">
+      <c r="S1" s="15">
         <v>9</v>
       </c>
-      <c r="T1" s="19">
+      <c r="T1" s="15">
         <v>10</v>
       </c>
-      <c r="U1" s="19">
+      <c r="U1" s="15">
         <v>11</v>
       </c>
-      <c r="V1" s="19">
+      <c r="V1" s="15">
         <v>12</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="15">
         <v>13</v>
       </c>
-      <c r="X1" s="19">
+      <c r="X1" s="15">
         <v>14</v>
       </c>
-      <c r="Y1" s="19">
+      <c r="Y1" s="15">
         <v>15</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="Z1" s="15">
         <v>16</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AA1" s="15">
         <v>17</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AB1" s="15">
         <v>18</v>
       </c>
-      <c r="AC1" s="19">
+      <c r="AC1" s="15">
         <v>19</v>
       </c>
-      <c r="AD1" s="19">
+      <c r="AD1" s="15">
         <v>20</v>
       </c>
-      <c r="AE1" s="19">
+      <c r="AE1" s="15">
         <v>21</v>
       </c>
-      <c r="AF1" s="19">
+      <c r="AF1" s="15">
         <v>22</v>
       </c>
-      <c r="AG1" s="19">
+      <c r="AG1" s="15">
         <v>23</v>
       </c>
-      <c r="AH1" s="19">
+      <c r="AH1" s="15">
         <v>24</v>
       </c>
-      <c r="AI1" s="19">
+      <c r="AI1" s="15">
         <v>25</v>
       </c>
-      <c r="AJ1" s="19">
+      <c r="AJ1" s="15">
         <v>26</v>
       </c>
-      <c r="AK1" s="19">
+      <c r="AK1" s="15">
         <v>27</v>
       </c>
-      <c r="AL1" s="19">
+      <c r="AL1" s="15">
         <v>28</v>
       </c>
-      <c r="AM1" s="19">
+      <c r="AM1" s="15">
         <v>29</v>
       </c>
-      <c r="AN1" s="19">
+      <c r="AN1" s="15">
         <v>30</v>
       </c>
-      <c r="AO1" s="19">
+      <c r="AO1" s="15">
         <v>31</v>
       </c>
-      <c r="AP1" s="19">
+      <c r="AP1" s="15">
         <v>32</v>
       </c>
-      <c r="AQ1" s="19">
+      <c r="AQ1" s="15">
         <v>33</v>
       </c>
-      <c r="AR1" s="19">
+      <c r="AR1" s="15">
         <v>34</v>
       </c>
-      <c r="AS1" s="19">
+      <c r="AS1" s="15">
         <v>35</v>
       </c>
-      <c r="AT1" s="19">
+      <c r="AT1" s="15">
         <v>36</v>
       </c>
-      <c r="AU1" s="19">
+      <c r="AU1" s="15">
         <v>37</v>
       </c>
-      <c r="AV1" s="19">
+      <c r="AV1" s="15">
         <v>38</v>
       </c>
-      <c r="AW1" s="19">
+      <c r="AW1" s="15">
         <v>39</v>
       </c>
-      <c r="AX1" s="19">
+      <c r="AX1" s="15">
         <v>40</v>
       </c>
-      <c r="AY1" s="19">
+      <c r="AY1" s="15">
         <v>41</v>
       </c>
-      <c r="AZ1" s="19">
+      <c r="AZ1" s="15">
         <v>42</v>
       </c>
-      <c r="BA1" s="19">
+      <c r="BA1" s="15">
         <v>43</v>
       </c>
-      <c r="BB1" s="19">
+      <c r="BB1" s="15">
         <v>44</v>
       </c>
-      <c r="BC1" s="19">
+      <c r="BC1" s="15">
         <v>45</v>
       </c>
-      <c r="BD1" s="19">
+      <c r="BD1" s="15">
         <v>46</v>
       </c>
-      <c r="BE1" s="19">
+      <c r="BE1" s="15">
         <v>47</v>
       </c>
-      <c r="BF1" s="19">
+      <c r="BF1" s="15">
         <v>48</v>
       </c>
-      <c r="BG1" s="19">
+      <c r="BG1" s="15">
         <v>49</v>
       </c>
-      <c r="BH1" s="19">
+      <c r="BH1" s="15">
         <v>50</v>
       </c>
-      <c r="BI1" s="19">
+      <c r="BI1" s="15">
         <v>51</v>
       </c>
-      <c r="BJ1" s="19">
+      <c r="BJ1" s="15">
         <v>52</v>
       </c>
-      <c r="BK1" s="19">
+      <c r="BK1" s="15">
         <v>53</v>
       </c>
-      <c r="BL1" s="19">
+      <c r="BL1" s="15">
         <v>54</v>
       </c>
-      <c r="BM1" s="19">
+      <c r="BM1" s="15">
         <v>55</v>
       </c>
-      <c r="BN1" s="19">
+      <c r="BN1" s="15">
         <v>56</v>
       </c>
-      <c r="BO1" s="19">
+      <c r="BO1" s="15">
         <v>57</v>
       </c>
-      <c r="BP1" s="19">
+      <c r="BP1" s="15">
         <v>58</v>
       </c>
     </row>
@@ -825,13 +832,13 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -852,20 +859,20 @@
       <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -886,7 +893,7 @@
       <c r="F4" s="4">
         <v>8</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
@@ -898,8 +905,8 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -920,7 +927,7 @@
       <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
@@ -928,26 +935,26 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -968,7 +975,7 @@
       <c r="F6" s="4">
         <v>21</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
@@ -993,14 +1000,14 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I7" s="15"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1012,10 +1019,10 @@
         <f>SUM(F2:F6)/5</f>
         <v>7</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I9" s="15"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1039,7 +1046,7 @@
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1063,13 +1070,13 @@
       <c r="G11" s="10">
         <v>2</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1093,17 +1100,17 @@
       <c r="G12" s="10">
         <v>3</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1127,7 +1134,7 @@
       <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="9" t="s">
         <v>8</v>
       </c>
@@ -1136,8 +1143,8 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1161,16 +1168,16 @@
       <c r="G14" s="10">
         <v>3</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1194,36 +1201,36 @@
       <c r="G15" s="10">
         <v>3</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I16" s="15"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="7">
         <f>SUM(F11:F15)/5</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I18" s="15"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -1244,11 +1251,11 @@
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="15"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1269,17 +1276,17 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="22">
         <v>0</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1300,24 +1307,24 @@
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="22">
         <v>3</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1338,11 +1345,11 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="22">
         <v>0</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="9" t="s">
         <v>8</v>
       </c>
@@ -1351,11 +1358,11 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1376,11 +1383,11 @@
       <c r="F23" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="22">
         <v>15</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="9" t="s">
         <v>9</v>
       </c>
@@ -1388,11 +1395,11 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1413,11 +1420,11 @@
       <c r="F24" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="22">
         <v>0</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="9" t="s">
         <v>10</v>
       </c>
@@ -1427,117 +1434,117 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I25" s="15"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="7">
         <f>SUM(F20:F24)/5</f>
         <v>3.4</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I27" s="15"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="15"/>
-      <c r="AR28" s="15"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="15"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
-      <c r="BD28" s="15"/>
-      <c r="BE28" s="15"/>
-      <c r="BF28" s="15"/>
-      <c r="BG28" s="15"/>
-      <c r="BH28" s="15"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="15"/>
-      <c r="BK28" s="15"/>
-      <c r="BL28" s="15"/>
-      <c r="BM28" s="15"/>
-      <c r="BN28" s="15"/>
-      <c r="BO28" s="15"/>
-      <c r="BP28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I29" s="15"/>
+      <c r="I29" s="12"/>
       <c r="K29">
         <v>1</v>
       </c>
@@ -1714,11 +1721,11 @@
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="I30" s="15"/>
+      <c r="B30" s="23"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -1742,7 +1749,7 @@
       <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1763,28 +1770,28 @@
       <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="13">
         <v>3</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1805,10 +1812,10 @@
       <c r="F33" s="4">
         <v>7</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="13">
         <v>1</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="9" t="s">
         <v>7</v>
       </c>
@@ -1819,13 +1826,13 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1846,25 +1853,25 @@
       <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="13">
         <v>4</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1885,10 +1892,10 @@
       <c r="F35" s="4">
         <v>20</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="13">
         <v>2</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="9" t="s">
         <v>8</v>
       </c>
@@ -1912,50 +1919,50 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
-      <c r="AU35" s="20"/>
-      <c r="AV35" s="20"/>
-      <c r="AW35" s="20"/>
-      <c r="AX35" s="20"/>
-      <c r="AY35" s="20"/>
-      <c r="AZ35" s="20"/>
-      <c r="BA35" s="20"/>
-      <c r="BB35" s="20"/>
-      <c r="BC35" s="20"/>
-      <c r="BD35" s="20"/>
-      <c r="BE35" s="20"/>
-      <c r="BF35" s="20"/>
-      <c r="BG35" s="20"/>
-      <c r="BH35" s="20"/>
-      <c r="BI35" s="20"/>
-      <c r="BJ35" s="20"/>
-      <c r="BK35" s="20"/>
-      <c r="BL35" s="20"/>
-      <c r="BM35" s="20"/>
-      <c r="BN35" s="20"/>
-      <c r="BO35" s="20"/>
-      <c r="BP35" s="20"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BG35" s="16"/>
+      <c r="BH35" s="16"/>
+      <c r="BI35" s="16"/>
+      <c r="BJ35" s="16"/>
+      <c r="BK35" s="16"/>
+      <c r="BL35" s="16"/>
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="16"/>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I36" s="15"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="7">
         <f>SUM(F31:F35)/5</f>
         <v>5.8</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I38" s="15"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -1976,7 +1983,7 @@
       <c r="F39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -1997,25 +2004,25 @@
       <c r="F40" s="4">
         <v>0</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -2036,7 +2043,7 @@
       <c r="F41" s="4">
         <v>7</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="9" t="s">
         <v>7</v>
       </c>
@@ -2047,13 +2054,13 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -2074,7 +2081,7 @@
       <c r="F42" s="4">
         <v>10</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="9" t="s">
         <v>8</v>
       </c>
@@ -2088,32 +2095,32 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="20"/>
-      <c r="AZ42" s="20"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="20"/>
-      <c r="BC42" s="20"/>
-      <c r="BD42" s="20"/>
-      <c r="BE42" s="20"/>
-      <c r="BF42" s="20"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="16"/>
+      <c r="AP42" s="16"/>
+      <c r="AQ42" s="16"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="16"/>
+      <c r="AV42" s="16"/>
+      <c r="AW42" s="16"/>
+      <c r="AX42" s="16"/>
+      <c r="AY42" s="16"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
+      <c r="BC42" s="16"/>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="16"/>
+      <c r="BF42" s="16"/>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -2134,7 +2141,7 @@
       <c r="F43" s="4">
         <v>28</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="9" t="s">
         <v>9</v>
       </c>
@@ -2166,34 +2173,34 @@
       <c r="BD43" s="3"/>
       <c r="BE43" s="3"/>
       <c r="BF43" s="3"/>
-      <c r="BG43" s="20"/>
-      <c r="BH43" s="20"/>
-      <c r="BI43" s="20"/>
-      <c r="BJ43" s="20"/>
-      <c r="BK43" s="20"/>
-      <c r="BL43" s="20"/>
-      <c r="BM43" s="20"/>
-      <c r="BN43" s="20"/>
-      <c r="BO43" s="20"/>
-      <c r="BP43" s="20"/>
+      <c r="BG43" s="16"/>
+      <c r="BH43" s="16"/>
+      <c r="BI43" s="16"/>
+      <c r="BJ43" s="16"/>
+      <c r="BK43" s="16"/>
+      <c r="BL43" s="16"/>
+      <c r="BM43" s="16"/>
+      <c r="BN43" s="16"/>
+      <c r="BO43" s="16"/>
+      <c r="BP43" s="16"/>
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I44" s="15"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="7">
         <f>SUM(F39:F43)/5</f>
         <v>9</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I46" s="15"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -2214,11 +2221,11 @@
       <c r="F47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="15"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -2239,24 +2246,24 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="22">
         <v>5</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -2277,28 +2284,28 @@
       <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="22">
         <v>0</v>
       </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -2319,34 +2326,34 @@
       <c r="F50" s="4">
         <v>10</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="22">
         <v>16</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="20"/>
-      <c r="AK50" s="20"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="20"/>
-      <c r="AP50" s="20"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="16"/>
+      <c r="AK50" s="16"/>
+      <c r="AL50" s="16"/>
+      <c r="AM50" s="16"/>
+      <c r="AN50" s="16"/>
+      <c r="AO50" s="16"/>
+      <c r="AP50" s="16"/>
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -2367,11 +2374,11 @@
       <c r="F51" s="4">
         <v>12</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="22">
         <v>0</v>
       </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="9" t="s">
         <v>9</v>
       </c>
@@ -2387,123 +2394,123 @@
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
-      <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20"/>
-      <c r="AU51" s="20"/>
-      <c r="AV51" s="20"/>
-      <c r="AW51" s="20"/>
-      <c r="AX51" s="20"/>
-      <c r="AY51" s="20"/>
-      <c r="AZ51" s="20"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21"/>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-      <c r="BF51" s="21"/>
-      <c r="BG51" s="21"/>
-      <c r="BH51" s="21"/>
-      <c r="BI51" s="21"/>
-      <c r="BJ51" s="21"/>
-      <c r="BK51" s="21"/>
-      <c r="BL51" s="21"/>
-      <c r="BM51" s="21"/>
-      <c r="BN51" s="21"/>
-      <c r="BO51" s="21"/>
-      <c r="BP51" s="21"/>
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="16"/>
+      <c r="AS51" s="16"/>
+      <c r="AT51" s="16"/>
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="16"/>
+      <c r="AW51" s="16"/>
+      <c r="AX51" s="16"/>
+      <c r="AY51" s="16"/>
+      <c r="AZ51" s="16"/>
+      <c r="BA51" s="17"/>
+      <c r="BB51" s="17"/>
+      <c r="BC51" s="17"/>
+      <c r="BD51" s="17"/>
+      <c r="BE51" s="17"/>
+      <c r="BF51" s="17"/>
+      <c r="BG51" s="17"/>
+      <c r="BH51" s="17"/>
+      <c r="BI51" s="17"/>
+      <c r="BJ51" s="17"/>
+      <c r="BK51" s="17"/>
+      <c r="BL51" s="17"/>
+      <c r="BM51" s="17"/>
+      <c r="BN51" s="17"/>
+      <c r="BO51" s="17"/>
+      <c r="BP51" s="17"/>
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I52" s="15"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="7">
         <f>SUM(F47:F51)/5</f>
         <v>4.8</v>
       </c>
-      <c r="I53" s="15"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I54" s="15"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
-      <c r="AG55" s="15"/>
-      <c r="AH55" s="15"/>
-      <c r="AI55" s="15"/>
-      <c r="AJ55" s="15"/>
-      <c r="AK55" s="15"/>
-      <c r="AL55" s="15"/>
-      <c r="AM55" s="15"/>
-      <c r="AN55" s="15"/>
-      <c r="AO55" s="15"/>
-      <c r="AP55" s="15"/>
-      <c r="AQ55" s="15"/>
-      <c r="AR55" s="15"/>
-      <c r="AS55" s="15"/>
-      <c r="AT55" s="15"/>
-      <c r="AU55" s="15"/>
-      <c r="AV55" s="15"/>
-      <c r="AW55" s="15"/>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="15"/>
-      <c r="BA55" s="15"/>
-      <c r="BB55" s="15"/>
-      <c r="BC55" s="15"/>
-      <c r="BD55" s="15"/>
-      <c r="BE55" s="15"/>
-      <c r="BF55" s="15"/>
-      <c r="BG55" s="15"/>
-      <c r="BH55" s="15"/>
-      <c r="BI55" s="15"/>
-      <c r="BJ55" s="15"/>
-      <c r="BK55" s="15"/>
-      <c r="BL55" s="15"/>
-      <c r="BM55" s="15"/>
-      <c r="BN55" s="15"/>
-      <c r="BO55" s="15"/>
-      <c r="BP55" s="15"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BC55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="12"/>
+      <c r="BL55" s="12"/>
+      <c r="BM55" s="12"/>
+      <c r="BN55" s="12"/>
+      <c r="BO55" s="12"/>
+      <c r="BP55" s="12"/>
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I56" s="15"/>
+      <c r="I56" s="12"/>
       <c r="K56">
         <v>1</v>
       </c>
@@ -2680,11 +2687,11 @@
       </c>
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="I57" s="15"/>
+      <c r="B57" s="23"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
@@ -2705,11 +2712,11 @@
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="15"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -2730,24 +2737,24 @@
       <c r="F59" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="22">
         <v>4</v>
       </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -2768,29 +2775,29 @@
       <c r="F60" s="4">
         <v>3</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="22">
         <v>0</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="9" t="s">
         <v>7</v>
       </c>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2811,11 +2818,11 @@
       <c r="F61" s="4">
         <v>11</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="22">
         <v>26</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="12"/>
       <c r="J61" s="9" t="s">
         <v>8</v>
       </c>
@@ -2830,16 +2837,16 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
-      <c r="AG61" s="20"/>
-      <c r="AH61" s="20"/>
-      <c r="AI61" s="20"/>
-      <c r="AJ61" s="20"/>
-      <c r="AK61" s="20"/>
-      <c r="AL61" s="20"/>
-      <c r="AM61" s="20"/>
-      <c r="AN61" s="20"/>
-      <c r="AO61" s="20"/>
-      <c r="AP61" s="20"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+      <c r="AI61" s="16"/>
+      <c r="AJ61" s="16"/>
+      <c r="AK61" s="16"/>
+      <c r="AL61" s="16"/>
+      <c r="AM61" s="16"/>
+      <c r="AN61" s="16"/>
+      <c r="AO61" s="16"/>
+      <c r="AP61" s="16"/>
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2860,11 +2867,11 @@
       <c r="F62" s="4">
         <v>12</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="22">
         <v>0</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="9" t="s">
         <v>9</v>
       </c>
@@ -2880,47 +2887,85 @@
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
-      <c r="AQ62" s="20"/>
-      <c r="AR62" s="20"/>
-      <c r="AS62" s="20"/>
-      <c r="AT62" s="20"/>
-      <c r="AU62" s="20"/>
-      <c r="AV62" s="20"/>
-      <c r="AW62" s="20"/>
-      <c r="AX62" s="20"/>
-      <c r="AY62" s="20"/>
-      <c r="AZ62" s="20"/>
-      <c r="BA62" s="21"/>
-      <c r="BB62" s="21"/>
-      <c r="BC62" s="21"/>
-      <c r="BD62" s="21"/>
-      <c r="BE62" s="21"/>
-      <c r="BF62" s="21"/>
-      <c r="BG62" s="21"/>
-      <c r="BH62" s="21"/>
-      <c r="BI62" s="21"/>
-      <c r="BJ62" s="21"/>
-      <c r="BK62" s="21"/>
-      <c r="BL62" s="21"/>
-      <c r="BM62" s="21"/>
-      <c r="BN62" s="21"/>
-      <c r="BO62" s="21"/>
-      <c r="BP62" s="21"/>
+      <c r="AQ62" s="16"/>
+      <c r="AR62" s="16"/>
+      <c r="AS62" s="16"/>
+      <c r="AT62" s="16"/>
+      <c r="AU62" s="16"/>
+      <c r="AV62" s="16"/>
+      <c r="AW62" s="16"/>
+      <c r="AX62" s="16"/>
+      <c r="AY62" s="16"/>
+      <c r="AZ62" s="16"/>
+      <c r="BA62" s="17"/>
+      <c r="BB62" s="17"/>
+      <c r="BC62" s="17"/>
+      <c r="BD62" s="17"/>
+      <c r="BE62" s="17"/>
+      <c r="BF62" s="17"/>
+      <c r="BG62" s="17"/>
+      <c r="BH62" s="17"/>
+      <c r="BI62" s="17"/>
+      <c r="BJ62" s="17"/>
+      <c r="BK62" s="17"/>
+      <c r="BL62" s="17"/>
+      <c r="BM62" s="17"/>
+      <c r="BN62" s="17"/>
+      <c r="BO62" s="17"/>
+      <c r="BP62" s="17"/>
     </row>
     <row r="63" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="I63" s="15"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="7">
         <f>SUM(F58:F62)/5</f>
         <v>5.2</v>
       </c>
-      <c r="I64" s="15"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="19"/>
+      <c r="AJ67" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2937,17 +2982,17 @@
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
